--- a/configs/table-configs/floor_plans-complete.xlsx
+++ b/configs/table-configs/floor_plans-complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edward/Dev/Nuxt/EE_manager/configs/table-configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E807B6-0427-A648-BF8E-15051B8AEA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFFA5A6-790C-F84E-9D56-2B9F25153556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="158080" yWindow="19400" windowWidth="33660" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,7 +722,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -806,7 +806,7 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -839,7 +839,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -849,7 +849,7 @@
       </c>
       <c r="F4" t="str">
         <f>IF(SUM($C$2:C4)&lt;=350,"P1",IF(SUM($C$2:C4)&lt;=780,"P2",IF(SUM($C$2:C4)&lt;=1140,"P3",IF(SUM($C$2:C4)&lt;=1880,"P4","P5"))))</f>
-        <v>P2</v>
+        <v>P1</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
